--- a/mod_october_16/work_version.xlsx
+++ b/mod_october_16/work_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3766E7-6966-46C0-B8A1-FE2E77B6712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6498E-D794-4F07-970B-51C23BD21855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>@cuatm</t>
   </si>
   <si>
-    <t>&lt;?php return classifiers_get_list('cuatm'); ?&gt;</t>
-  </si>
-  <si>
     <t>Activitatea principală</t>
   </si>
   <si>
@@ -1310,6 +1307,9 @@
   </si>
   <si>
     <t>CAPIa_R01_T_C11</t>
+  </si>
+  <si>
+    <t>SELECT code, CONCAT( CASE WHEN t.code REGEXP '^[13]' THEN CONCAT('0', t.code) ELSE t.code END, ' ', name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9');</t>
   </si>
 </sst>
 </file>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1661,11 +1661,12 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="22" max="22" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1760,7 +1761,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1825,7 +1826,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1876,7 +1877,7 @@
         <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1896,13 +1897,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1938,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
         <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>45</v>
       </c>
       <c r="V4" t="s">
         <v>32</v>
@@ -1964,13 +1965,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -2006,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2026,13 +2027,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -2085,13 +2086,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -2127,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2147,13 +2148,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -2189,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
         <v>32</v>
@@ -2212,13 +2213,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -2277,13 +2278,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -2319,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2339,13 +2340,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -2381,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2401,16 +2402,16 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -2443,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V12" t="s">
         <v>32</v>
@@ -2466,17 +2467,17 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2528,16 +2529,16 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -2570,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2590,16 +2591,16 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -2632,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2652,16 +2653,16 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -2694,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2714,16 +2715,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2756,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2776,16 +2777,16 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -2818,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2838,16 +2839,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -2880,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2900,16 +2901,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -2942,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2962,16 +2963,16 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -3004,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -3024,16 +3025,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -3066,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3086,16 +3087,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -3128,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3148,16 +3149,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -3190,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3210,16 +3211,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -3252,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3272,16 +3273,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
         <v>98</v>
       </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -3314,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3334,23 +3335,23 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
       </c>
       <c r="F27" t="s">
         <v>32</v>
       </c>
       <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
         <v>102</v>
       </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -3379,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3402,16 +3403,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3444,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3464,16 +3465,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3506,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3526,16 +3527,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3568,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3588,16 +3589,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3630,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3650,16 +3651,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -3692,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3712,16 +3713,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
         <v>114</v>
       </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3754,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3774,16 +3775,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
-        <v>117</v>
-      </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3816,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3836,16 +3837,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -3878,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3898,16 +3899,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3940,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3960,16 +3961,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
         <v>122</v>
       </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -4002,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -4022,13 +4023,13 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
         <v>124</v>
       </c>
-      <c r="C38" t="s">
-        <v>125</v>
-      </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -4061,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -4081,13 +4082,13 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4120,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -4140,13 +4141,13 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
         <v>128</v>
       </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4179,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4199,13 +4200,13 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
         <v>130</v>
       </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
@@ -4238,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4258,49 +4259,49 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
         <v>132</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>133</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
         <v>134</v>
-      </c>
-      <c r="F42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>135</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4320,19 +4321,19 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4362,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -4385,16 +4386,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
         <v>139</v>
       </c>
-      <c r="C44" t="s">
-        <v>140</v>
-      </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4427,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4447,16 +4448,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
         <v>141</v>
       </c>
-      <c r="C45" t="s">
-        <v>142</v>
-      </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4489,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4509,16 +4510,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="s">
-        <v>144</v>
-      </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
@@ -4551,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -4571,16 +4572,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
         <v>145</v>
       </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4613,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -4633,16 +4634,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -4675,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4695,16 +4696,16 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
         <v>149</v>
       </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -4737,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4757,16 +4758,16 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
         <v>151</v>
       </c>
-      <c r="C50" t="s">
-        <v>152</v>
-      </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4799,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -4819,16 +4820,16 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
-        <v>154</v>
-      </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -4861,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4881,16 +4882,16 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
         <v>155</v>
       </c>
-      <c r="C52" t="s">
-        <v>156</v>
-      </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
@@ -4923,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -4943,16 +4944,16 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
         <v>157</v>
       </c>
-      <c r="C53" t="s">
-        <v>158</v>
-      </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -4985,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -5005,16 +5006,16 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5047,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -5067,16 +5068,16 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>162</v>
-      </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -5109,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5129,16 +5130,16 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
         <v>163</v>
       </c>
-      <c r="C56" t="s">
-        <v>164</v>
-      </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5171,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -5191,16 +5192,16 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
         <v>165</v>
       </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5233,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -5253,16 +5254,16 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
         <v>167</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>168</v>
       </c>
-      <c r="D58" t="s">
-        <v>169</v>
-      </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
         <v>33</v>
@@ -5295,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -5315,19 +5316,19 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
         <v>170</v>
       </c>
-      <c r="C59" t="s">
-        <v>171</v>
-      </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F59" t="s">
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5357,10 +5358,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
+        <v>171</v>
+      </c>
+      <c r="V59" t="s">
         <v>172</v>
-      </c>
-      <c r="V59" t="s">
-        <v>173</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5380,49 +5381,49 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>14</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
         <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>169</v>
-      </c>
-      <c r="F60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>14</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>175</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -5442,16 +5443,16 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -5484,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -5504,16 +5505,16 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -5546,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -5566,16 +5567,16 @@
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -5608,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -5628,16 +5629,16 @@
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -5670,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W64">
         <v>0</v>
@@ -5690,16 +5691,16 @@
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -5732,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W65">
         <v>0</v>
@@ -5752,16 +5753,16 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -5794,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -5814,16 +5815,16 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -5856,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W67">
         <v>0</v>
@@ -5876,16 +5877,16 @@
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -5918,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -5938,16 +5939,16 @@
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -5980,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -6000,16 +6001,16 @@
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6042,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -6062,16 +6063,16 @@
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6104,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -6124,16 +6125,16 @@
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -6166,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -6186,16 +6187,16 @@
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s">
         <v>33</v>
@@ -6228,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -6248,23 +6249,23 @@
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F74" t="s">
         <v>32</v>
       </c>
       <c r="G74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" t="s">
         <v>102</v>
       </c>
-      <c r="I74" t="s">
-        <v>103</v>
-      </c>
       <c r="J74">
         <v>0</v>
       </c>
@@ -6293,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -6316,16 +6317,16 @@
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -6358,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -6378,16 +6379,16 @@
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -6420,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -6440,16 +6441,16 @@
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -6482,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -6502,16 +6503,16 @@
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -6544,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W78">
         <v>0</v>
@@ -6564,16 +6565,16 @@
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -6606,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -6626,16 +6627,16 @@
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -6668,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W80">
         <v>0</v>
@@ -6688,16 +6689,16 @@
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -6730,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -6750,16 +6751,16 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -6792,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -6812,16 +6813,16 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -6854,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -6874,16 +6875,16 @@
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -6916,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -6936,16 +6937,16 @@
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -6978,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W85">
         <v>0</v>
@@ -6998,16 +6999,16 @@
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -7040,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -7060,16 +7061,16 @@
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -7102,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -7122,16 +7123,16 @@
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -7164,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -7184,19 +7185,19 @@
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" t="s">
         <v>204</v>
       </c>
-      <c r="D89" t="s">
-        <v>205</v>
-      </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -7229,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -7249,22 +7250,22 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
         <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -7294,10 +7295,10 @@
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -7317,19 +7318,19 @@
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -7382,19 +7383,19 @@
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G92" t="s">
         <v>33</v>
@@ -7427,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="V92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W92">
         <v>0</v>
@@ -7447,19 +7448,19 @@
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
@@ -7492,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="V93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W93">
         <v>0</v>
@@ -7512,19 +7513,19 @@
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -7557,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -7577,19 +7578,19 @@
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -7622,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -7642,19 +7643,19 @@
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -7687,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -7707,19 +7708,19 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -7752,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -7772,19 +7773,19 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -7817,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W98">
         <v>0</v>
@@ -7837,19 +7838,19 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -7882,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -7902,19 +7903,19 @@
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -7947,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -7967,19 +7968,19 @@
     </row>
     <row r="101" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -8012,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W101">
         <v>0</v>
@@ -8032,19 +8033,19 @@
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G102" t="s">
         <v>33</v>
@@ -8077,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W102">
         <v>0</v>
@@ -8097,19 +8098,19 @@
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G103" t="s">
         <v>33</v>
@@ -8142,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W103">
         <v>0</v>
@@ -8162,19 +8163,19 @@
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" t="s">
         <v>221</v>
       </c>
-      <c r="C104" t="s">
-        <v>222</v>
-      </c>
       <c r="D104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -8207,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W104">
         <v>0</v>
@@ -8227,13 +8228,13 @@
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" t="s">
         <v>223</v>
       </c>
-      <c r="C105" t="s">
-        <v>224</v>
-      </c>
       <c r="F105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G105" t="s">
         <v>33</v>
@@ -8266,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="V105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -8286,13 +8287,13 @@
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" t="s">
         <v>225</v>
       </c>
-      <c r="C106" t="s">
-        <v>226</v>
-      </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G106" t="s">
         <v>33</v>
@@ -8325,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -8345,13 +8346,13 @@
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
         <v>227</v>
       </c>
-      <c r="C107" t="s">
-        <v>228</v>
-      </c>
       <c r="F107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G107" t="s">
         <v>33</v>
@@ -8384,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="V107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W107">
         <v>0</v>
@@ -8404,13 +8405,13 @@
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" t="s">
         <v>229</v>
       </c>
-      <c r="C108" t="s">
-        <v>230</v>
-      </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -8443,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W108">
         <v>0</v>
@@ -8463,13 +8464,13 @@
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" t="s">
         <v>231</v>
       </c>
-      <c r="C109" t="s">
-        <v>232</v>
-      </c>
       <c r="F109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -8502,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="V109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W109">
         <v>0</v>
@@ -8522,13 +8523,13 @@
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" t="s">
         <v>233</v>
       </c>
-      <c r="C110" t="s">
-        <v>234</v>
-      </c>
       <c r="F110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s">
         <v>33</v>
@@ -8561,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="V110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W110">
         <v>0</v>
@@ -8581,13 +8582,13 @@
     </row>
     <row r="111" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
         <v>235</v>
       </c>
-      <c r="C111" t="s">
-        <v>236</v>
-      </c>
       <c r="F111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" t="s">
         <v>33</v>
@@ -8620,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="V111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W111">
         <v>0</v>
@@ -8640,13 +8641,13 @@
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" t="s">
         <v>237</v>
       </c>
-      <c r="C112" t="s">
-        <v>238</v>
-      </c>
       <c r="F112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -8679,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="V112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -8699,13 +8700,13 @@
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" t="s">
         <v>239</v>
       </c>
-      <c r="C113" t="s">
-        <v>240</v>
-      </c>
       <c r="F113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G113" t="s">
         <v>33</v>
@@ -8738,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="V113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W113">
         <v>0</v>
@@ -8758,13 +8759,13 @@
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" t="s">
         <v>241</v>
       </c>
-      <c r="C114" t="s">
-        <v>242</v>
-      </c>
       <c r="F114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -8797,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="V114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -8817,20 +8818,20 @@
     </row>
     <row r="115" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" t="s">
         <v>243</v>
-      </c>
-      <c r="C115" t="s">
-        <v>244</v>
       </c>
       <c r="F115" t="s">
         <v>32</v>
       </c>
       <c r="G115" t="s">
+        <v>101</v>
+      </c>
+      <c r="I115" t="s">
         <v>102</v>
       </c>
-      <c r="I115" t="s">
-        <v>103</v>
-      </c>
       <c r="J115">
         <v>0</v>
       </c>
@@ -8859,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -8882,13 +8883,13 @@
     </row>
     <row r="116" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" t="s">
         <v>245</v>
       </c>
-      <c r="C116" t="s">
-        <v>246</v>
-      </c>
       <c r="F116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -8921,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="V116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -8941,13 +8942,13 @@
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s">
         <v>247</v>
       </c>
-      <c r="C117" t="s">
-        <v>248</v>
-      </c>
       <c r="F117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G117" t="s">
         <v>33</v>
@@ -8980,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="V117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -9000,13 +9001,13 @@
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" t="s">
         <v>249</v>
       </c>
-      <c r="C118" t="s">
-        <v>250</v>
-      </c>
       <c r="F118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -9039,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="V118" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -9059,13 +9060,13 @@
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" t="s">
         <v>251</v>
       </c>
-      <c r="C119" t="s">
-        <v>252</v>
-      </c>
       <c r="F119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -9098,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="V119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -9118,13 +9119,13 @@
     </row>
     <row r="120" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" t="s">
         <v>253</v>
       </c>
-      <c r="C120" t="s">
-        <v>254</v>
-      </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -9157,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="V120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -9177,13 +9178,13 @@
     </row>
     <row r="121" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" t="s">
         <v>255</v>
       </c>
-      <c r="C121" t="s">
-        <v>256</v>
-      </c>
       <c r="F121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -9216,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="V121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W121">
         <v>0</v>
@@ -9236,13 +9237,13 @@
     </row>
     <row r="122" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" t="s">
         <v>257</v>
       </c>
-      <c r="C122" t="s">
-        <v>258</v>
-      </c>
       <c r="F122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G122" t="s">
         <v>33</v>
@@ -9275,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="V122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W122">
         <v>0</v>
@@ -9295,13 +9296,13 @@
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" t="s">
         <v>259</v>
       </c>
-      <c r="C123" t="s">
-        <v>260</v>
-      </c>
       <c r="F123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G123" t="s">
         <v>33</v>
@@ -9334,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="V123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -9354,13 +9355,13 @@
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" t="s">
         <v>261</v>
       </c>
-      <c r="C124" t="s">
-        <v>262</v>
-      </c>
       <c r="F124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G124" t="s">
         <v>33</v>
@@ -9393,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="V124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -9413,13 +9414,13 @@
     </row>
     <row r="125" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" t="s">
         <v>263</v>
       </c>
-      <c r="C125" t="s">
-        <v>264</v>
-      </c>
       <c r="F125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -9452,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="V125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -9472,16 +9473,16 @@
     </row>
     <row r="126" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
         <v>265</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>266</v>
       </c>
-      <c r="D126" t="s">
-        <v>267</v>
-      </c>
       <c r="F126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G126" t="s">
         <v>33</v>
@@ -9514,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="V126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -9534,19 +9535,19 @@
     </row>
     <row r="127" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
         <v>268</v>
       </c>
-      <c r="C127" t="s">
-        <v>269</v>
-      </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F127" t="s">
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -9576,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -9599,16 +9600,16 @@
     </row>
     <row r="128" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" t="s">
         <v>271</v>
       </c>
-      <c r="C128" t="s">
-        <v>272</v>
-      </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G128" t="s">
         <v>33</v>
@@ -9641,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="V128" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -9661,16 +9662,16 @@
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" t="s">
         <v>273</v>
       </c>
-      <c r="C129" t="s">
-        <v>274</v>
-      </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s">
         <v>33</v>
@@ -9703,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="V129" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -9723,16 +9724,16 @@
     </row>
     <row r="130" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" t="s">
         <v>275</v>
       </c>
-      <c r="C130" t="s">
-        <v>276</v>
-      </c>
       <c r="D130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s">
         <v>33</v>
@@ -9765,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="V130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -9785,16 +9786,16 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" t="s">
         <v>277</v>
       </c>
-      <c r="C131" t="s">
-        <v>278</v>
-      </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -9827,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="V131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -9847,16 +9848,16 @@
     </row>
     <row r="132" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" t="s">
         <v>279</v>
       </c>
-      <c r="C132" t="s">
-        <v>280</v>
-      </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -9889,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="V132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -9909,16 +9910,16 @@
     </row>
     <row r="133" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
+        <v>280</v>
+      </c>
+      <c r="C133" t="s">
         <v>281</v>
       </c>
-      <c r="C133" t="s">
-        <v>282</v>
-      </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -9951,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="V133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -9971,16 +9972,16 @@
     </row>
     <row r="134" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" t="s">
         <v>283</v>
       </c>
-      <c r="C134" t="s">
-        <v>284</v>
-      </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G134" t="s">
         <v>33</v>
@@ -10013,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="V134" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -10033,16 +10034,16 @@
     </row>
     <row r="135" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" t="s">
         <v>285</v>
       </c>
-      <c r="C135" t="s">
-        <v>286</v>
-      </c>
       <c r="D135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G135" t="s">
         <v>33</v>
@@ -10075,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="V135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -10095,16 +10096,16 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" t="s">
         <v>287</v>
       </c>
-      <c r="C136" t="s">
-        <v>288</v>
-      </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G136" t="s">
         <v>33</v>
@@ -10137,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="V136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -10157,16 +10158,16 @@
     </row>
     <row r="137" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" t="s">
         <v>289</v>
       </c>
-      <c r="C137" t="s">
-        <v>290</v>
-      </c>
       <c r="D137" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -10199,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="V137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -10219,16 +10220,16 @@
     </row>
     <row r="138" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" t="s">
         <v>291</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>292</v>
       </c>
-      <c r="D138" t="s">
-        <v>293</v>
-      </c>
       <c r="F138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G138" t="s">
         <v>33</v>
@@ -10261,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="V138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -10281,19 +10282,19 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="s">
         <v>294</v>
       </c>
-      <c r="C139" t="s">
-        <v>295</v>
-      </c>
       <c r="D139" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F139" t="s">
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -10323,10 +10324,10 @@
         <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -10346,16 +10347,16 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G140" t="s">
         <v>33</v>
@@ -10388,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="V140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -10408,16 +10409,16 @@
     </row>
     <row r="141" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D141" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -10450,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="V141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -10470,16 +10471,16 @@
     </row>
     <row r="142" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G142" t="s">
         <v>33</v>
@@ -10512,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="V142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -10532,16 +10533,16 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G143" t="s">
         <v>33</v>
@@ -10574,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="V143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -10594,16 +10595,16 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -10636,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="V144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -10656,16 +10657,16 @@
     </row>
     <row r="145" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -10698,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="V145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W145">
         <v>0</v>
@@ -10718,16 +10719,16 @@
     </row>
     <row r="146" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F146" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -10760,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="V146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -10780,16 +10781,16 @@
     </row>
     <row r="147" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C147" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
@@ -10822,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="V147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -10842,16 +10843,16 @@
     </row>
     <row r="148" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F148" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G148" t="s">
         <v>33</v>
@@ -10884,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="V148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -10904,16 +10905,16 @@
     </row>
     <row r="149" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C149" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D149" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G149" t="s">
         <v>33</v>
@@ -10946,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="V149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -10966,23 +10967,23 @@
     </row>
     <row r="150" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" t="s">
         <v>307</v>
       </c>
-      <c r="C150" t="s">
-        <v>308</v>
-      </c>
       <c r="D150" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
         <v>32</v>
       </c>
       <c r="G150" t="s">
+        <v>101</v>
+      </c>
+      <c r="I150" t="s">
         <v>102</v>
       </c>
-      <c r="I150" t="s">
-        <v>103</v>
-      </c>
       <c r="J150">
         <v>0</v>
       </c>
@@ -11011,10 +11012,10 @@
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -11034,16 +11035,16 @@
     </row>
     <row r="151" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" t="s">
         <v>309</v>
       </c>
-      <c r="C151" t="s">
-        <v>310</v>
-      </c>
       <c r="D151" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -11076,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="V151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -11096,16 +11097,16 @@
     </row>
     <row r="152" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" t="s">
         <v>311</v>
       </c>
-      <c r="C152" t="s">
-        <v>312</v>
-      </c>
       <c r="D152" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -11138,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="V152" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -11158,16 +11159,16 @@
     </row>
     <row r="153" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
+        <v>312</v>
+      </c>
+      <c r="C153" t="s">
         <v>313</v>
       </c>
-      <c r="C153" t="s">
-        <v>314</v>
-      </c>
       <c r="D153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G153" t="s">
         <v>33</v>
@@ -11200,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="V153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -11220,16 +11221,16 @@
     </row>
     <row r="154" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" t="s">
         <v>315</v>
       </c>
-      <c r="C154" t="s">
-        <v>316</v>
-      </c>
       <c r="D154" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G154" t="s">
         <v>33</v>
@@ -11262,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="V154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -11282,16 +11283,16 @@
     </row>
     <row r="155" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" t="s">
         <v>317</v>
       </c>
-      <c r="C155" t="s">
-        <v>318</v>
-      </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -11324,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="V155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -11344,16 +11345,16 @@
     </row>
     <row r="156" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" t="s">
         <v>319</v>
       </c>
-      <c r="C156" t="s">
-        <v>320</v>
-      </c>
       <c r="D156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -11386,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="V156" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -11406,16 +11407,16 @@
     </row>
     <row r="157" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" t="s">
         <v>321</v>
       </c>
-      <c r="C157" t="s">
-        <v>322</v>
-      </c>
       <c r="D157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G157" t="s">
         <v>33</v>
@@ -11448,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="V157" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -11468,16 +11469,16 @@
     </row>
     <row r="158" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G158" t="s">
         <v>33</v>
@@ -11510,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="V158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -11530,16 +11531,16 @@
     </row>
     <row r="159" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D159" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -11572,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="V159" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W159">
         <v>0</v>
@@ -11592,16 +11593,16 @@
     </row>
     <row r="160" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G160" t="s">
         <v>33</v>
@@ -11634,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="V160" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W160">
         <v>0</v>
@@ -11654,19 +11655,19 @@
     </row>
     <row r="161" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
+        <v>325</v>
+      </c>
+      <c r="D161" t="s">
         <v>326</v>
       </c>
-      <c r="D161" t="s">
-        <v>327</v>
-      </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -11699,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="V161" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W161">
         <v>0</v>
@@ -11719,22 +11720,22 @@
     </row>
     <row r="162" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F162" t="s">
         <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -11764,10 +11765,10 @@
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V162" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -11787,19 +11788,19 @@
     </row>
     <row r="163" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D163" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -11832,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="V163" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -11852,19 +11853,19 @@
     </row>
     <row r="164" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D164" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E164" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G164" t="s">
         <v>33</v>
@@ -11897,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="V164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -11917,19 +11918,19 @@
     </row>
     <row r="165" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E165" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -11962,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="V165" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -11982,19 +11983,19 @@
     </row>
     <row r="166" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D166" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E166" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F166" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -12027,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="V166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -12047,19 +12048,19 @@
     </row>
     <row r="167" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C167" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D167" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E167" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -12092,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="V167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -12112,19 +12113,19 @@
     </row>
     <row r="168" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D168" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E168" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G168" t="s">
         <v>33</v>
@@ -12157,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="V168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -12177,19 +12178,19 @@
     </row>
     <row r="169" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E169" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F169" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -12222,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="V169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -12242,19 +12243,19 @@
     </row>
     <row r="170" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F170" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -12287,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="V170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -12307,19 +12308,19 @@
     </row>
     <row r="171" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C171" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E171" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F171" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G171" t="s">
         <v>33</v>
@@ -12352,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="V171" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -12372,19 +12373,19 @@
     </row>
     <row r="172" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C172" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D172" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E172" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F172" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G172" t="s">
         <v>33</v>
@@ -12417,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="V172" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -12437,13 +12438,13 @@
     </row>
     <row r="173" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" t="s">
         <v>340</v>
       </c>
-      <c r="C173" t="s">
-        <v>341</v>
-      </c>
       <c r="F173" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -12476,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="V173" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -12496,13 +12497,13 @@
     </row>
     <row r="174" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
+        <v>341</v>
+      </c>
+      <c r="C174" t="s">
         <v>342</v>
       </c>
-      <c r="C174" t="s">
-        <v>343</v>
-      </c>
       <c r="F174" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -12535,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="V174" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W174">
         <v>0</v>
@@ -12555,13 +12556,13 @@
     </row>
     <row r="175" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" t="s">
         <v>344</v>
       </c>
-      <c r="C175" t="s">
-        <v>345</v>
-      </c>
       <c r="F175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -12594,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="V175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -12614,13 +12615,13 @@
     </row>
     <row r="176" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
+        <v>345</v>
+      </c>
+      <c r="C176" t="s">
         <v>346</v>
       </c>
-      <c r="C176" t="s">
-        <v>347</v>
-      </c>
       <c r="F176" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -12653,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="V176" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W176">
         <v>0</v>
@@ -12673,13 +12674,13 @@
     </row>
     <row r="177" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" t="s">
         <v>348</v>
       </c>
-      <c r="C177" t="s">
-        <v>349</v>
-      </c>
       <c r="F177" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
@@ -12712,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="V177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -12732,13 +12733,13 @@
     </row>
     <row r="178" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" t="s">
         <v>350</v>
       </c>
-      <c r="C178" t="s">
-        <v>351</v>
-      </c>
       <c r="F178" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
@@ -12771,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="V178" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -12791,13 +12792,13 @@
     </row>
     <row r="179" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" t="s">
         <v>352</v>
       </c>
-      <c r="C179" t="s">
-        <v>353</v>
-      </c>
       <c r="F179" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
@@ -12830,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="V179" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -12850,13 +12851,13 @@
     </row>
     <row r="180" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
+        <v>353</v>
+      </c>
+      <c r="C180" t="s">
         <v>354</v>
       </c>
-      <c r="C180" t="s">
-        <v>355</v>
-      </c>
       <c r="F180" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -12889,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="V180" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -12909,13 +12910,13 @@
     </row>
     <row r="181" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
+        <v>355</v>
+      </c>
+      <c r="C181" t="s">
         <v>356</v>
       </c>
-      <c r="C181" t="s">
-        <v>357</v>
-      </c>
       <c r="F181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -12948,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="V181" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -12968,13 +12969,13 @@
     </row>
     <row r="182" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" t="s">
         <v>358</v>
       </c>
-      <c r="C182" t="s">
-        <v>359</v>
-      </c>
       <c r="F182" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -13007,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="V182" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -13027,13 +13028,13 @@
     </row>
     <row r="183" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
+        <v>359</v>
+      </c>
+      <c r="C183" t="s">
         <v>360</v>
       </c>
-      <c r="C183" t="s">
-        <v>361</v>
-      </c>
       <c r="F183" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
@@ -13066,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="V183" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -13086,13 +13087,13 @@
     </row>
     <row r="184" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
+        <v>361</v>
+      </c>
+      <c r="C184" t="s">
         <v>362</v>
       </c>
-      <c r="C184" t="s">
-        <v>363</v>
-      </c>
       <c r="F184" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
@@ -13125,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="V184" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -13145,13 +13146,13 @@
     </row>
     <row r="185" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" t="s">
         <v>364</v>
       </c>
-      <c r="C185" t="s">
-        <v>365</v>
-      </c>
       <c r="F185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -13184,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="V185" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -13204,13 +13205,13 @@
     </row>
     <row r="186" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" t="s">
         <v>366</v>
       </c>
-      <c r="C186" t="s">
-        <v>367</v>
-      </c>
       <c r="F186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G186" t="s">
         <v>33</v>
@@ -13243,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="V186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -13263,13 +13264,13 @@
     </row>
     <row r="187" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
+        <v>367</v>
+      </c>
+      <c r="C187" t="s">
         <v>368</v>
       </c>
-      <c r="C187" t="s">
-        <v>369</v>
-      </c>
       <c r="F187" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -13302,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="V187" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -13322,13 +13323,13 @@
     </row>
     <row r="188" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" t="s">
         <v>370</v>
       </c>
-      <c r="C188" t="s">
-        <v>371</v>
-      </c>
       <c r="F188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -13361,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="V188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -13381,13 +13382,13 @@
     </row>
     <row r="189" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" t="s">
         <v>372</v>
       </c>
-      <c r="C189" t="s">
-        <v>373</v>
-      </c>
       <c r="F189" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -13420,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="V189" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -13440,13 +13441,13 @@
     </row>
     <row r="190" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
+        <v>373</v>
+      </c>
+      <c r="C190" t="s">
         <v>374</v>
       </c>
-      <c r="C190" t="s">
-        <v>375</v>
-      </c>
       <c r="F190" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G190" t="s">
         <v>33</v>
@@ -13479,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="V190" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -13499,13 +13500,13 @@
     </row>
     <row r="191" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
+        <v>375</v>
+      </c>
+      <c r="C191" t="s">
         <v>376</v>
       </c>
-      <c r="C191" t="s">
-        <v>377</v>
-      </c>
       <c r="F191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G191" t="s">
         <v>33</v>
@@ -13538,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="V191" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -13558,13 +13559,13 @@
     </row>
     <row r="192" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" t="s">
         <v>378</v>
       </c>
-      <c r="C192" t="s">
-        <v>379</v>
-      </c>
       <c r="F192" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G192" t="s">
         <v>33</v>
@@ -13597,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="V192" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -13617,13 +13618,13 @@
     </row>
     <row r="193" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" t="s">
         <v>380</v>
       </c>
-      <c r="C193" t="s">
-        <v>381</v>
-      </c>
       <c r="F193" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G193" t="s">
         <v>33</v>
@@ -13656,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="V193" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -13676,13 +13677,13 @@
     </row>
     <row r="194" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
+        <v>381</v>
+      </c>
+      <c r="C194" t="s">
         <v>382</v>
       </c>
-      <c r="C194" t="s">
-        <v>383</v>
-      </c>
       <c r="F194" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G194" t="s">
         <v>33</v>
@@ -13715,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="V194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -13735,13 +13736,13 @@
     </row>
     <row r="195" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s">
         <v>384</v>
       </c>
-      <c r="C195" t="s">
-        <v>385</v>
-      </c>
       <c r="F195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G195" t="s">
         <v>33</v>
@@ -13774,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="V195" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -13794,13 +13795,13 @@
     </row>
     <row r="196" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
+        <v>385</v>
+      </c>
+      <c r="C196" t="s">
         <v>386</v>
       </c>
-      <c r="C196" t="s">
-        <v>387</v>
-      </c>
       <c r="F196" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
@@ -13833,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="V196" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -13853,13 +13854,13 @@
     </row>
     <row r="197" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" t="s">
         <v>388</v>
       </c>
-      <c r="C197" t="s">
-        <v>389</v>
-      </c>
       <c r="F197" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G197" t="s">
         <v>33</v>
@@ -13892,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="V197" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -13912,13 +13913,13 @@
     </row>
     <row r="198" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
+        <v>389</v>
+      </c>
+      <c r="C198" t="s">
         <v>390</v>
       </c>
-      <c r="C198" t="s">
-        <v>391</v>
-      </c>
       <c r="F198" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G198" t="s">
         <v>33</v>
@@ -13951,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="V198" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -14004,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W199">
         <v>0</v>

--- a/mod_october_16/work_version.xlsx
+++ b/mod_october_16/work_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6498E-D794-4F07-970B-51C23BD21855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD7B94-96D4-4E4C-B8EC-F173E7AF552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
     <t>CAPIa_R01_T_C11</t>
   </si>
   <si>
-    <t>SELECT code, CONCAT( CASE WHEN t.code REGEXP '^[13]' THEN CONCAT('0', t.code) ELSE t.code END, ' ', name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9');</t>
+    <t>SELECT code, CONCAT(CASE WHEN TRIM(code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(code)) = 6 THEN CONCAT('0', TRIM(code)) ELSE TRIM(code) END, ' ', name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9') AND c.code not in ('101000');</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:AE199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/mod_october_16/work_version.xlsx
+++ b/mod_october_16/work_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD7B94-96D4-4E4C-B8EC-F173E7AF552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DA13D-7F02-472B-9561-A97837D85577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
     <t>CAPIa_R01_T_C11</t>
   </si>
   <si>
-    <t>SELECT code, CONCAT(CASE WHEN TRIM(code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(code)) = 6 THEN CONCAT('0', TRIM(code)) ELSE TRIM(code) END, ' ', name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9') AND c.code not in ('101000');</t>
+    <t>SELECT LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END , 4) AS code, CONCAT(LEFT(CASE WHEN TRIM(code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(code)) = 6 THEN CONCAT('0', TRIM(code)) ELSE TRIM(code) END, 4), ' - ', name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9') AND c.code not in ('101000');</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:AE199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1661,7 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="22" max="22" width="41.5703125" customWidth="1"/>
+    <col min="22" max="22" width="91.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">

--- a/mod_october_16/work_version.xlsx
+++ b/mod_october_16/work_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DA13D-7F02-472B-9561-A97837D85577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F348247-E5FC-45FC-8E61-5049A2ABE984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
     <t>CAPIa_R01_T_C11</t>
   </si>
   <si>
-    <t>SELECT LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END , 4) AS code, CONCAT(LEFT(CASE WHEN TRIM(code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(code)) = 6 THEN CONCAT('0', TRIM(code)) ELSE TRIM(code) END, 4), ' - ', name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9') AND c.code not in ('101000');</t>
+    <t>SELECT LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END , 4) AS code, CONCAT(LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END, 4), ' - ',  t.name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9') AND c.code not in ('101000');</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1661,6 +1664,7 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
     <col min="22" max="22" width="91.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1873,7 +1877,7 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T3" t="s">

--- a/mod_october_16/work_version.xlsx
+++ b/mod_october_16/work_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F348247-E5FC-45FC-8E61-5049A2ABE984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B29F10-3A00-410F-8F35-43D8867985CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="445">
   <si>
     <t>title</t>
   </si>
@@ -1310,25 +1310,88 @@
   </si>
   <si>
     <t>SELECT LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END , 4) AS code, CONCAT(LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END, 4), ' - ',  t.name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('5','3','4','6','8','9') AND c.code not in ('101000');</t>
+  </si>
+  <si>
+    <t>nalogPeriodLetter</t>
+  </si>
+  <si>
+    <t>Perioada fiscală</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Header/nalogPeriodLetter</t>
+  </si>
+  <si>
+    <t>period_type</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>nalogPeriodType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perioada fiscală </t>
+  </si>
+  <si>
+    <t>dec/DataSet/Header/nalogPeriodType</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>@last_year_period</t>
+  </si>
+  <si>
+    <t>CAPIa_R01_F_C2</t>
+  </si>
+  <si>
+    <t>CAPIa_R01_F_C3</t>
+  </si>
+  <si>
+    <t>CAPIa_R01_F_C7</t>
+  </si>
+  <si>
+    <t>CAPIa_R01_F_C8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1343,11 +1406,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,23 +1718,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE199"/>
+  <dimension ref="A1:AH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="22" max="22" width="91.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>392</v>
       </c>
@@ -1763,7 +1829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -1828,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>394</v>
       </c>
@@ -1899,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -1967,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>396</v>
       </c>
@@ -2029,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>397</v>
       </c>
@@ -2088,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>398</v>
       </c>
@@ -2150,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>399</v>
       </c>
@@ -2215,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>400</v>
       </c>
@@ -2280,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>401</v>
       </c>
@@ -2342,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>402</v>
       </c>
@@ -2404,208 +2470,238 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>17</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>79</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>440</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>403</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>9</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
         <v>67</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V14" t="s">
         <v>32</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>4</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>404</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>15</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>14</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>71</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>15</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
@@ -2613,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2649,21 +2745,21 @@
         <v>15</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>74</v>
@@ -2675,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2719,13 +2815,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>74</v>
@@ -2781,13 +2877,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>74</v>
@@ -2799,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2843,13 +2939,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
@@ -2861,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2905,13 +3001,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
@@ -2967,13 +3063,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>
@@ -3029,16 +3125,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -3083,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3091,16 +3187,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -3109,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3145,7 +3241,7 @@
         <v>15</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3153,16 +3249,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -3207,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3215,16 +3311,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -3233,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3269,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3277,13 +3373,13 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>74</v>
@@ -3339,28 +3435,25 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3383,9 +3476,6 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="T27" t="s">
-        <v>44</v>
-      </c>
       <c r="V27" t="s">
         <v>71</v>
       </c>
@@ -3396,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3407,16 +3497,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3425,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3437,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3461,7 +3551,7 @@
         <v>15</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3469,19 +3559,22 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>101</v>
+      </c>
+      <c r="I29" t="s">
+        <v>102</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3510,6 +3603,9 @@
       <c r="R29">
         <v>0</v>
       </c>
+      <c r="T29" t="s">
+        <v>44</v>
+      </c>
       <c r="V29" t="s">
         <v>71</v>
       </c>
@@ -3520,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3531,16 +3627,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3585,7 +3681,7 @@
         <v>15</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -3593,13 +3689,13 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
         <v>74</v>
@@ -3623,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3655,13 +3751,13 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
@@ -3717,13 +3813,13 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
@@ -3779,13 +3875,13 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
         <v>74</v>
@@ -3841,13 +3937,13 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
         <v>74</v>
@@ -3903,13 +3999,13 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
         <v>74</v>
@@ -3965,16 +4061,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -4019,21 +4115,24 @@
         <v>15</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>427</v>
+      </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -4078,21 +4177,24 @@
         <v>15</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>428</v>
+      </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4137,21 +4239,24 @@
         <v>15</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>441</v>
+      </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4196,18 +4301,21 @@
         <v>15</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>442</v>
+      </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
         <v>74</v>
@@ -4262,17 +4370,17 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>443</v>
+      </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
@@ -4293,19 +4401,19 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4314,30 +4422,30 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>444</v>
+      </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4366,11 +4474,8 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="T43" t="s">
-        <v>44</v>
-      </c>
       <c r="V43" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -4379,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -4390,10 +4495,10 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
         <v>133</v>
@@ -4420,19 +4525,19 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4441,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4452,19 +4557,19 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4482,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -4493,8 +4598,11 @@
       <c r="R45">
         <v>0</v>
       </c>
+      <c r="T45" t="s">
+        <v>44</v>
+      </c>
       <c r="V45" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4503,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -4514,16 +4622,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
         <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
@@ -4568,7 +4676,7 @@
         <v>20</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -4576,10 +4684,10 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
         <v>133</v>
@@ -4606,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4638,10 +4746,10 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
@@ -4700,10 +4808,10 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
         <v>133</v>
@@ -4762,10 +4870,10 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -4824,10 +4932,10 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>133</v>
@@ -4886,10 +4994,10 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
@@ -4948,16 +5056,16 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
         <v>133</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5002,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -5010,16 +5118,16 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5064,7 +5172,7 @@
         <v>20</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -5072,16 +5180,16 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -5126,7 +5234,7 @@
         <v>20</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -5134,16 +5242,16 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
         <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5188,7 +5296,7 @@
         <v>20</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -5196,10 +5304,10 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -5258,16 +5366,16 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
         <v>33</v>
@@ -5288,19 +5396,19 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -5309,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -5320,19 +5428,19 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5353,19 +5461,16 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="T59" t="s">
-        <v>171</v>
-      </c>
       <c r="V59" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -5374,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -5385,10 +5490,10 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
         <v>168</v>
@@ -5418,16 +5523,16 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -5436,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -5447,19 +5552,19 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
         <v>168</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -5477,19 +5582,22 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
+      <c r="T61" t="s">
+        <v>171</v>
+      </c>
       <c r="V61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -5498,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -5509,16 +5617,16 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
         <v>168</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -5563,7 +5671,7 @@
         <v>15</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -5571,10 +5679,10 @@
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
         <v>168</v>
@@ -5633,10 +5741,10 @@
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -5695,10 +5803,10 @@
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
@@ -5757,10 +5865,10 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
@@ -5819,10 +5927,10 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
@@ -5881,10 +5989,10 @@
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
@@ -5943,16 +6051,16 @@
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -5997,7 +6105,7 @@
         <v>15</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -6005,16 +6113,16 @@
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
         <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6059,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -6067,16 +6175,16 @@
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
         <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6121,7 +6229,7 @@
         <v>15</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -6129,16 +6237,16 @@
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
         <v>168</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -6183,7 +6291,7 @@
         <v>15</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -6191,10 +6299,10 @@
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
         <v>168</v>
@@ -6253,22 +6361,19 @@
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -6297,11 +6402,8 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="T74" t="s">
-        <v>44</v>
-      </c>
       <c r="V74" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -6310,10 +6412,10 @@
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -6321,16 +6423,16 @@
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -6351,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -6363,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -6375,7 +6477,7 @@
         <v>15</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -6383,19 +6485,22 @@
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
         <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>101</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -6424,6 +6529,9 @@
       <c r="R76">
         <v>0</v>
       </c>
+      <c r="T76" t="s">
+        <v>44</v>
+      </c>
       <c r="V76" t="s">
         <v>71</v>
       </c>
@@ -6434,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -6445,16 +6553,16 @@
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -6499,7 +6607,7 @@
         <v>15</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB77">
         <v>0</v>
@@ -6507,10 +6615,10 @@
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
         <v>168</v>
@@ -6537,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6569,10 +6677,10 @@
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -6631,10 +6739,10 @@
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D80" t="s">
         <v>168</v>
@@ -6693,10 +6801,10 @@
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D81" t="s">
         <v>168</v>
@@ -6755,10 +6863,10 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D82" t="s">
         <v>168</v>
@@ -6817,10 +6925,10 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D83" t="s">
         <v>168</v>
@@ -6879,16 +6987,16 @@
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -6933,7 +7041,7 @@
         <v>15</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -6941,16 +7049,16 @@
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -6995,7 +7103,7 @@
         <v>15</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -7003,16 +7111,16 @@
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
         <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -7057,7 +7165,7 @@
         <v>15</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB86">
         <v>0</v>
@@ -7065,16 +7173,16 @@
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s">
         <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -7119,7 +7227,7 @@
         <v>15</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -7127,10 +7235,10 @@
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D88" t="s">
         <v>168</v>
@@ -7189,19 +7297,16 @@
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>204</v>
-      </c>
-      <c r="E89" t="s">
         <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -7222,19 +7327,19 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -7243,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -7254,22 +7359,19 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
-      </c>
-      <c r="E90" t="s">
         <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G90" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -7298,11 +7400,8 @@
       <c r="R90">
         <v>0</v>
       </c>
-      <c r="T90" t="s">
-        <v>44</v>
-      </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -7311,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -7322,10 +7421,10 @@
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
         <v>204</v>
@@ -7355,19 +7454,19 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -7376,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="Y91">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -7387,10 +7486,10 @@
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
         <v>204</v>
@@ -7399,10 +7498,10 @@
         <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -7420,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -7431,8 +7530,11 @@
       <c r="R92">
         <v>0</v>
       </c>
+      <c r="T92" t="s">
+        <v>44</v>
+      </c>
       <c r="V92" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="W92">
         <v>0</v>
@@ -7441,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB92">
         <v>0</v>
@@ -7452,10 +7554,10 @@
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
         <v>204</v>
@@ -7464,7 +7566,7 @@
         <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
@@ -7509,7 +7611,7 @@
         <v>20</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB93">
         <v>0</v>
@@ -7517,10 +7619,10 @@
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
         <v>204</v>
@@ -7550,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -7582,10 +7684,10 @@
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
         <v>204</v>
@@ -7647,10 +7749,10 @@
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D96" t="s">
         <v>204</v>
@@ -7712,10 +7814,10 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
         <v>204</v>
@@ -7777,10 +7879,10 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
         <v>204</v>
@@ -7842,10 +7944,10 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
         <v>204</v>
@@ -7907,10 +8009,10 @@
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
         <v>204</v>
@@ -7919,7 +8021,7 @@
         <v>168</v>
       </c>
       <c r="F100" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -7964,7 +8066,7 @@
         <v>20</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>0</v>
@@ -7972,10 +8074,10 @@
     </row>
     <row r="101" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
         <v>204</v>
@@ -7984,7 +8086,7 @@
         <v>168</v>
       </c>
       <c r="F101" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -8029,7 +8131,7 @@
         <v>20</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -8037,10 +8139,10 @@
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
         <v>204</v>
@@ -8049,7 +8151,7 @@
         <v>168</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G102" t="s">
         <v>33</v>
@@ -8094,7 +8196,7 @@
         <v>20</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB102">
         <v>0</v>
@@ -8102,10 +8204,10 @@
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
         <v>204</v>
@@ -8114,7 +8216,7 @@
         <v>168</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G103" t="s">
         <v>33</v>
@@ -8159,7 +8261,7 @@
         <v>20</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -8167,10 +8269,10 @@
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
         <v>204</v>
@@ -8232,10 +8334,16 @@
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="D105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" t="s">
+        <v>168</v>
       </c>
       <c r="F105" t="s">
         <v>74</v>
@@ -8259,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -8280,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z105">
         <v>1</v>
@@ -8291,10 +8399,16 @@
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="D106" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" t="s">
+        <v>168</v>
       </c>
       <c r="F106" t="s">
         <v>74</v>
@@ -8318,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -8339,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z106">
         <v>1</v>
@@ -8350,10 +8464,10 @@
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F107" t="s">
         <v>74</v>
@@ -8409,10 +8523,10 @@
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F108" t="s">
         <v>74</v>
@@ -8468,10 +8582,10 @@
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F109" t="s">
         <v>74</v>
@@ -8527,10 +8641,10 @@
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F110" t="s">
         <v>74</v>
@@ -8586,10 +8700,10 @@
     </row>
     <row r="111" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F111" t="s">
         <v>74</v>
@@ -8645,10 +8759,10 @@
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
         <v>74</v>
@@ -8704,10 +8818,10 @@
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F113" t="s">
         <v>74</v>
@@ -8763,10 +8877,10 @@
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
         <v>74</v>
@@ -8822,19 +8936,16 @@
     </row>
     <row r="115" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s">
-        <v>101</v>
-      </c>
-      <c r="I115" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -8863,9 +8974,6 @@
       <c r="R115">
         <v>0</v>
       </c>
-      <c r="T115" t="s">
-        <v>44</v>
-      </c>
       <c r="V115" t="s">
         <v>71</v>
       </c>
@@ -8876,10 +8984,10 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB115">
         <v>0</v>
@@ -8887,10 +8995,10 @@
     </row>
     <row r="116" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F116" t="s">
         <v>74</v>
@@ -8946,16 +9054,19 @@
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F117" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>101</v>
+      </c>
+      <c r="I117" t="s">
+        <v>102</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -8973,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -8984,6 +9095,9 @@
       <c r="R117">
         <v>0</v>
       </c>
+      <c r="T117" t="s">
+        <v>44</v>
+      </c>
       <c r="V117" t="s">
         <v>71</v>
       </c>
@@ -8994,10 +9108,10 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -9005,10 +9119,10 @@
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F118" t="s">
         <v>74</v>
@@ -9032,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -9064,10 +9178,10 @@
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F119" t="s">
         <v>74</v>
@@ -9123,10 +9237,10 @@
     </row>
     <row r="120" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F120" t="s">
         <v>74</v>
@@ -9182,10 +9296,10 @@
     </row>
     <row r="121" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F121" t="s">
         <v>74</v>
@@ -9241,10 +9355,10 @@
     </row>
     <row r="122" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F122" t="s">
         <v>74</v>
@@ -9300,10 +9414,10 @@
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F123" t="s">
         <v>74</v>
@@ -9359,10 +9473,10 @@
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F124" t="s">
         <v>74</v>
@@ -9418,10 +9532,10 @@
     </row>
     <row r="125" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F125" t="s">
         <v>74</v>
@@ -9477,16 +9591,13 @@
     </row>
     <row r="126" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
-      </c>
-      <c r="D126" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F126" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G126" t="s">
         <v>33</v>
@@ -9507,19 +9618,19 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="V126" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -9528,10 +9639,10 @@
         <v>0</v>
       </c>
       <c r="Y126">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -9539,19 +9650,16 @@
     </row>
     <row r="127" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
-      </c>
-      <c r="D127" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G127" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -9569,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -9580,11 +9688,8 @@
       <c r="R127">
         <v>0</v>
       </c>
-      <c r="T127" t="s">
-        <v>44</v>
-      </c>
       <c r="V127" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -9593,10 +9698,10 @@
         <v>0</v>
       </c>
       <c r="Y127">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB127">
         <v>0</v>
@@ -9604,16 +9709,16 @@
     </row>
     <row r="128" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D128" t="s">
         <v>266</v>
       </c>
       <c r="F128" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G128" t="s">
         <v>33</v>
@@ -9637,16 +9742,16 @@
         <v>1</v>
       </c>
       <c r="P128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R128">
         <v>0</v>
       </c>
       <c r="V128" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -9655,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="Y128">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB128">
         <v>0</v>
@@ -9666,19 +9771,19 @@
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D129" t="s">
         <v>266</v>
       </c>
       <c r="F129" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -9696,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -9707,8 +9812,11 @@
       <c r="R129">
         <v>0</v>
       </c>
+      <c r="T129" t="s">
+        <v>44</v>
+      </c>
       <c r="V129" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -9717,10 +9825,10 @@
         <v>0</v>
       </c>
       <c r="Y129">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB129">
         <v>0</v>
@@ -9728,10 +9836,10 @@
     </row>
     <row r="130" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C130" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D130" t="s">
         <v>266</v>
@@ -9758,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -9790,10 +9898,10 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D131" t="s">
         <v>266</v>
@@ -9852,10 +9960,10 @@
     </row>
     <row r="132" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D132" t="s">
         <v>266</v>
@@ -9914,10 +10022,10 @@
     </row>
     <row r="133" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D133" t="s">
         <v>266</v>
@@ -9976,10 +10084,10 @@
     </row>
     <row r="134" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D134" t="s">
         <v>266</v>
@@ -10038,10 +10146,10 @@
     </row>
     <row r="135" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D135" t="s">
         <v>266</v>
@@ -10100,10 +10208,10 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D136" t="s">
         <v>266</v>
@@ -10162,10 +10270,10 @@
     </row>
     <row r="137" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D137" t="s">
         <v>266</v>
@@ -10224,16 +10332,16 @@
     </row>
     <row r="138" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D138" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G138" t="s">
         <v>33</v>
@@ -10254,19 +10362,19 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R138">
         <v>0</v>
       </c>
       <c r="V138" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -10275,10 +10383,10 @@
         <v>0</v>
       </c>
       <c r="Y138">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB138">
         <v>0</v>
@@ -10286,19 +10394,19 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D139" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G139" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -10316,22 +10424,19 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R139">
         <v>0</v>
       </c>
-      <c r="T139" t="s">
-        <v>171</v>
-      </c>
       <c r="V139" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -10340,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB139">
         <v>0</v>
@@ -10351,16 +10456,16 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D140" t="s">
         <v>292</v>
       </c>
       <c r="F140" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G140" t="s">
         <v>33</v>
@@ -10384,16 +10489,16 @@
         <v>1</v>
       </c>
       <c r="P140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R140">
         <v>0</v>
       </c>
       <c r="V140" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -10402,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="Y140">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB140">
         <v>0</v>
@@ -10413,19 +10518,19 @@
     </row>
     <row r="141" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="C141" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D141" t="s">
         <v>292</v>
       </c>
       <c r="F141" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -10446,16 +10551,19 @@
         <v>1</v>
       </c>
       <c r="P141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q141">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R141">
         <v>0</v>
       </c>
+      <c r="T141" t="s">
+        <v>171</v>
+      </c>
       <c r="V141" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -10464,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="Y141">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB141">
         <v>0</v>
@@ -10475,10 +10583,10 @@
     </row>
     <row r="142" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D142" t="s">
         <v>292</v>
@@ -10537,10 +10645,10 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D143" t="s">
         <v>292</v>
@@ -10599,10 +10707,10 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C144" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D144" t="s">
         <v>292</v>
@@ -10661,10 +10769,10 @@
     </row>
     <row r="145" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D145" t="s">
         <v>292</v>
@@ -10723,10 +10831,10 @@
     </row>
     <row r="146" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C146" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D146" t="s">
         <v>292</v>
@@ -10785,10 +10893,10 @@
     </row>
     <row r="147" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D147" t="s">
         <v>292</v>
@@ -10847,10 +10955,10 @@
     </row>
     <row r="148" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D148" t="s">
         <v>292</v>
@@ -10909,10 +11017,10 @@
     </row>
     <row r="149" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D149" t="s">
         <v>292</v>
@@ -10971,22 +11079,19 @@
     </row>
     <row r="150" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="C150" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D150" t="s">
         <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G150" t="s">
-        <v>101</v>
-      </c>
-      <c r="I150" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -11015,11 +11120,8 @@
       <c r="R150">
         <v>0</v>
       </c>
-      <c r="T150" t="s">
-        <v>44</v>
-      </c>
       <c r="V150" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -11028,10 +11130,10 @@
         <v>0</v>
       </c>
       <c r="Y150">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB150">
         <v>0</v>
@@ -11039,10 +11141,10 @@
     </row>
     <row r="151" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D151" t="s">
         <v>292</v>
@@ -11081,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="V151" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -11101,19 +11203,22 @@
     </row>
     <row r="152" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D152" t="s">
         <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>101</v>
+      </c>
+      <c r="I152" t="s">
+        <v>102</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -11131,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -11142,6 +11247,9 @@
       <c r="R152">
         <v>0</v>
       </c>
+      <c r="T152" t="s">
+        <v>44</v>
+      </c>
       <c r="V152" t="s">
         <v>71</v>
       </c>
@@ -11152,10 +11260,10 @@
         <v>0</v>
       </c>
       <c r="Y152">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB152">
         <v>0</v>
@@ -11163,10 +11271,10 @@
     </row>
     <row r="153" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D153" t="s">
         <v>292</v>
@@ -11193,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -11225,10 +11333,10 @@
     </row>
     <row r="154" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D154" t="s">
         <v>292</v>
@@ -11287,10 +11395,10 @@
     </row>
     <row r="155" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D155" t="s">
         <v>292</v>
@@ -11349,10 +11457,10 @@
     </row>
     <row r="156" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D156" t="s">
         <v>292</v>
@@ -11411,10 +11519,10 @@
     </row>
     <row r="157" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D157" t="s">
         <v>292</v>
@@ -11473,10 +11581,10 @@
     </row>
     <row r="158" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D158" t="s">
         <v>292</v>
@@ -11535,10 +11643,10 @@
     </row>
     <row r="159" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C159" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D159" t="s">
         <v>292</v>
@@ -11597,10 +11705,10 @@
     </row>
     <row r="160" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C160" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D160" t="s">
         <v>292</v>
@@ -11659,19 +11767,16 @@
     </row>
     <row r="161" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
-      </c>
-      <c r="E161" t="s">
         <v>292</v>
       </c>
       <c r="F161" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -11692,19 +11797,19 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R161">
         <v>0</v>
       </c>
       <c r="V161" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="W161">
         <v>0</v>
@@ -11713,10 +11818,10 @@
         <v>0</v>
       </c>
       <c r="Y161">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB161">
         <v>0</v>
@@ -11724,22 +11829,19 @@
     </row>
     <row r="162" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
-      </c>
-      <c r="E162" t="s">
         <v>292</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G162" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -11757,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -11768,11 +11870,8 @@
       <c r="R162">
         <v>0</v>
       </c>
-      <c r="T162" t="s">
-        <v>44</v>
-      </c>
       <c r="V162" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -11781,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="Y162">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -11792,10 +11891,10 @@
     </row>
     <row r="163" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D163" t="s">
         <v>326</v>
@@ -11804,7 +11903,7 @@
         <v>292</v>
       </c>
       <c r="F163" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -11828,16 +11927,16 @@
         <v>1</v>
       </c>
       <c r="P163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q163">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R163">
         <v>0</v>
       </c>
       <c r="V163" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -11846,10 +11945,10 @@
         <v>0</v>
       </c>
       <c r="Y163">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Z163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -11857,10 +11956,10 @@
     </row>
     <row r="164" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D164" t="s">
         <v>326</v>
@@ -11869,10 +11968,10 @@
         <v>292</v>
       </c>
       <c r="F164" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -11890,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -11901,8 +12000,11 @@
       <c r="R164">
         <v>0</v>
       </c>
+      <c r="T164" t="s">
+        <v>44</v>
+      </c>
       <c r="V164" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -11911,10 +12013,10 @@
         <v>0</v>
       </c>
       <c r="Y164">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -11922,10 +12024,10 @@
     </row>
     <row r="165" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D165" t="s">
         <v>326</v>
@@ -11955,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -11987,10 +12089,10 @@
     </row>
     <row r="166" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D166" t="s">
         <v>326</v>
@@ -12052,10 +12154,10 @@
     </row>
     <row r="167" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D167" t="s">
         <v>326</v>
@@ -12117,10 +12219,10 @@
     </row>
     <row r="168" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
         <v>326</v>
@@ -12182,10 +12284,10 @@
     </row>
     <row r="169" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D169" t="s">
         <v>326</v>
@@ -12247,10 +12349,10 @@
     </row>
     <row r="170" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D170" t="s">
         <v>326</v>
@@ -12312,10 +12414,10 @@
     </row>
     <row r="171" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D171" t="s">
         <v>326</v>
@@ -12377,10 +12479,10 @@
     </row>
     <row r="172" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D172" t="s">
         <v>326</v>
@@ -12442,13 +12544,19 @@
     </row>
     <row r="173" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="C173" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="D173" t="s">
+        <v>326</v>
+      </c>
+      <c r="E173" t="s">
+        <v>292</v>
       </c>
       <c r="F173" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -12490,10 +12598,10 @@
         <v>0</v>
       </c>
       <c r="Y173">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB173">
         <v>0</v>
@@ -12501,13 +12609,19 @@
     </row>
     <row r="174" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="C174" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="D174" t="s">
+        <v>326</v>
+      </c>
+      <c r="E174" t="s">
+        <v>292</v>
       </c>
       <c r="F174" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -12549,10 +12663,10 @@
         <v>0</v>
       </c>
       <c r="Y174">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB174">
         <v>0</v>
@@ -12560,13 +12674,13 @@
     </row>
     <row r="175" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -12611,7 +12725,7 @@
         <v>15</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB175">
         <v>0</v>
@@ -12619,10 +12733,10 @@
     </row>
     <row r="176" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
         <v>70</v>
@@ -12678,13 +12792,13 @@
     </row>
     <row r="177" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
@@ -12729,7 +12843,7 @@
         <v>15</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB177">
         <v>0</v>
@@ -12737,13 +12851,13 @@
     </row>
     <row r="178" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
@@ -12788,7 +12902,7 @@
         <v>15</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB178">
         <v>0</v>
@@ -12796,10 +12910,10 @@
     </row>
     <row r="179" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
         <v>70</v>
@@ -12855,13 +12969,13 @@
     </row>
     <row r="180" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -12906,7 +13020,7 @@
         <v>15</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB180">
         <v>0</v>
@@ -12914,13 +13028,13 @@
     </row>
     <row r="181" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -12965,7 +13079,7 @@
         <v>15</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB181">
         <v>0</v>
@@ -12973,10 +13087,10 @@
     </row>
     <row r="182" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
         <v>70</v>
@@ -13032,13 +13146,13 @@
     </row>
     <row r="183" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
@@ -13083,7 +13197,7 @@
         <v>15</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB183">
         <v>0</v>
@@ -13091,13 +13205,13 @@
     </row>
     <row r="184" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
@@ -13142,7 +13256,7 @@
         <v>15</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB184">
         <v>0</v>
@@ -13150,13 +13264,13 @@
     </row>
     <row r="185" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -13177,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -13201,7 +13315,7 @@
         <v>15</v>
       </c>
       <c r="Z185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB185">
         <v>0</v>
@@ -13209,10 +13323,10 @@
     </row>
     <row r="186" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
         <v>74</v>
@@ -13268,10 +13382,10 @@
     </row>
     <row r="187" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
         <v>74</v>
@@ -13327,10 +13441,10 @@
     </row>
     <row r="188" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
         <v>74</v>
@@ -13386,10 +13500,10 @@
     </row>
     <row r="189" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
         <v>74</v>
@@ -13413,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="O189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P189">
         <v>0</v>
@@ -13445,10 +13559,10 @@
     </row>
     <row r="190" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
         <v>74</v>
@@ -13504,10 +13618,10 @@
     </row>
     <row r="191" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
         <v>74</v>
@@ -13563,10 +13677,10 @@
     </row>
     <row r="192" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
         <v>74</v>
@@ -13622,10 +13736,10 @@
     </row>
     <row r="193" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C193" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
         <v>74</v>
@@ -13681,10 +13795,10 @@
     </row>
     <row r="194" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
         <v>74</v>
@@ -13740,10 +13854,10 @@
     </row>
     <row r="195" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
         <v>74</v>
@@ -13799,10 +13913,10 @@
     </row>
     <row r="196" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
         <v>74</v>
@@ -13858,10 +13972,10 @@
     </row>
     <row r="197" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
         <v>74</v>
@@ -13917,10 +14031,10 @@
     </row>
     <row r="198" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C198" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
         <v>74</v>
@@ -13975,55 +14089,173 @@
       </c>
     </row>
     <row r="199" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
       <c r="F199" t="s">
+        <v>74</v>
+      </c>
+      <c r="G199" t="s">
+        <v>33</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>14</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="V199" t="s">
+        <v>71</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>15</v>
+      </c>
+      <c r="Z199">
+        <v>1</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>389</v>
+      </c>
+      <c r="C200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
+        <v>74</v>
+      </c>
+      <c r="G200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>14</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="V200" t="s">
+        <v>71</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>15</v>
+      </c>
+      <c r="Z200">
+        <v>1</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
         <v>32</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G201" t="s">
         <v>6</v>
       </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-      <c r="K199">
-        <v>0</v>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-      <c r="M199">
-        <v>0</v>
-      </c>
-      <c r="N199">
-        <v>0</v>
-      </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-      <c r="Q199">
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
         <v>18</v>
       </c>
-      <c r="R199">
-        <v>0</v>
-      </c>
-      <c r="T199" t="s">
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="T201" t="s">
         <v>391</v>
       </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-      <c r="Y199">
-        <v>0</v>
-      </c>
-      <c r="Z199">
-        <v>0</v>
-      </c>
-      <c r="AB199">
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AB201">
         <v>0</v>
       </c>
     </row>

--- a/mod_october_16/work_version.xlsx
+++ b/mod_october_16/work_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B29F10-3A00-410F-8F35-43D8867985CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA8565-90F7-46F0-8AA2-4CC6C0C38A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="448">
   <si>
     <t>title</t>
   </si>
@@ -1355,6 +1355,15 @@
   </si>
   <si>
     <t>CAPIa_R01_F_C8</t>
+  </si>
+  <si>
+    <t>CAPIa_R_INDEX</t>
+  </si>
+  <si>
+    <t>CAPIa_R_T_C1</t>
+  </si>
+  <si>
+    <t>CAPIa_R_T_C2</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1729,6 +1738,8 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="88.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="22" max="22" width="91.5703125" customWidth="1"/>
@@ -4494,6 +4505,9 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>445</v>
+      </c>
       <c r="B44" t="s">
         <v>131</v>
       </c>
@@ -4556,6 +4570,9 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>446</v>
+      </c>
       <c r="B45" t="s">
         <v>135</v>
       </c>
@@ -4621,6 +4638,9 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>447</v>
+      </c>
       <c r="B46" t="s">
         <v>138</v>
       </c>
